--- a/Data/Txn of UAT2.xlsx
+++ b/Data/Txn of UAT2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="172">
   <si>
     <t>Account Number</t>
   </si>
@@ -394,9 +394,6 @@
   </si>
   <si>
     <t>17899025</t>
-  </si>
-  <si>
-    <t>17899026</t>
   </si>
   <si>
     <t>17899027</t>
@@ -871,7 +868,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,7 +898,7 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2">
         <v>1008784444</v>
@@ -911,11 +908,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>123</v>
+      <c r="A3" s="2">
+        <v>17899026</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="2">
         <v>1008784445</v>
@@ -926,10 +923,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="2">
         <v>1008784446</v>
@@ -940,7 +937,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -954,7 +951,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -963,15 +960,15 @@
         <v>1008784448</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="2">
         <v>1008784449</v>
@@ -982,7 +979,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -996,7 +993,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
@@ -1010,7 +1007,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -1024,10 +1021,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C11" s="2">
         <v>1008784454</v>
@@ -1038,10 +1035,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12" s="2">
         <v>1008784455</v>
@@ -1052,7 +1049,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
@@ -1061,12 +1058,12 @@
         <v>1008784456</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>6</v>
@@ -1075,12 +1072,12 @@
         <v>1008784458</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
@@ -1094,21 +1091,21 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" s="2">
         <v>1008784460</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>8</v>
@@ -1117,12 +1114,12 @@
         <v>1008784461</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>6</v>
@@ -1136,7 +1133,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
@@ -1150,10 +1147,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20" s="2">
         <v>1008784464</v>
@@ -1164,35 +1161,35 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C21" s="2">
         <v>1008784465</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C22" s="2">
         <v>1008784467</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>6</v>
@@ -1201,12 +1198,12 @@
         <v>1008784468</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
@@ -1220,10 +1217,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C25" s="2">
         <v>1008784470</v>
@@ -1234,10 +1231,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C26" s="2">
         <v>1008784471</v>
@@ -1248,7 +1245,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>8</v>
@@ -1262,7 +1259,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>6</v>
@@ -1271,12 +1268,12 @@
         <v>1008784473</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>4</v>
@@ -1290,24 +1287,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C30" s="2">
         <v>1008784476</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C31" s="2">
         <v>1008784477</v>
@@ -1318,10 +1315,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C32" s="2">
         <v>1008784478</v>
@@ -1332,7 +1329,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>8</v>
@@ -1346,7 +1343,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>6</v>
@@ -1360,7 +1357,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>4</v>
@@ -1369,36 +1366,36 @@
         <v>1008784482</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C36" s="2">
         <v>1008784483</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>8</v>
@@ -1408,7 +1405,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>6</v>
@@ -1418,7 +1415,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>4</v>
@@ -1428,37 +1425,37 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>8</v>
@@ -1468,7 +1465,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>6</v>
